--- a/resources/WeatherQuotes.xlsx
+++ b/resources/WeatherQuotes.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1b238de1fd64bc1/Documents/data/datacamp-hw/world_weather_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1b238de1fd64bc1/Documents/data/datacamp-hw/world_weather_analysis/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE3303FD-84C6-4727-8323-C3EA161F721F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{CE3303FD-84C6-4727-8323-C3EA161F721F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A0398FD7-4A59-416A-90CA-486A9B8E471A}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{6FA0BB82-477D-42EE-B4F0-108F9F4AA6E9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Quotes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,48 +34,2988 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Funny Weather Quotes</t>
-  </si>
-  <si>
-    <t>Cold Weather Quotes</t>
-  </si>
-  <si>
-    <t>Hot Weather Quotes</t>
-  </si>
-  <si>
-    <t>Rainy Weather Quotes</t>
-  </si>
-  <si>
-    <t>Beautiful Weather Quotes</t>
-  </si>
-  <si>
-    <t>Cloudy Weather Quotes</t>
-  </si>
-  <si>
-    <t>Good Weather Quotes</t>
-  </si>
-  <si>
-    <t>Bad Weather Quotes</t>
-  </si>
-  <si>
-    <t>Romantic Weather Quotes</t>
-  </si>
-  <si>
-    <t>Cool Weather Quotes</t>
-  </si>
-  <si>
-    <t>Love Weather Quotes</t>
-  </si>
-  <si>
-    <t>Weather The Storm Quotes</t>
-  </si>
-  <si>
-    <t>https://quote.cc/weather-quotes/</t>
-  </si>
-  <si>
-    <t>https://www.goodreads.com/quotes/tag?utf8=%E2%9C%93&amp;id=weather</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+  <si>
+    <t>“Life is possible only through challenges. Life is possible only when you have both good weather and bad weather, when you have both pleasure and pain, when you have both winter and summer, day and night. When you have both sadness and happiness, discomfort and comfort. Life moves between these two polarities. Moving between these two polarities you learn how to balance. Between these two wings you learn how to fly to the farthest star.” – Rajneesh</t>
+  </si>
+  <si>
+    <t>“All weather is sin-related. Lust causes thunder, anger causes fog, and you don’t want to know what causes dew.” – Stephen Colbert</t>
+  </si>
+  <si>
+    <t>“Going to the woods is going home, for I suppose we came from the woods originally. But in some of nature’s forests, the adventurous traveler seems a feeble, unwelcome creature; wild beasts and the weather trying to kill him, the rank, tangled vegetation, armed with spears and stinging needles, barring his way and making life a hard struggle.” – John Muir</t>
+  </si>
+  <si>
+    <t>“If enough people think of a thing and work hard enough at it, I guess it’s pretty nearly bound to happen, wind and weather permitting.” – Laura Ingalls Wilder</t>
+  </si>
+  <si>
+    <t>“I don’t have to get up in the morning and go beat up my body like I used to. I don’t have to be out there in August in 108 degree weather down in Texas.” – Emmitt Smith</t>
+  </si>
+  <si>
+    <t>“Conversation about the weather is the last refuge of the unimaginative.” – Oscar Wilde</t>
+  </si>
+  <si>
+    <t>“Climate is what we expect, weather is what we get.” – Mark Twain</t>
+  </si>
+  <si>
+    <t>“All the world lies warm in one heart, yet the Sierra seems to get more light than other mountains. The weather is mostly sunshine embellished with magnificent storms, and nearly everything shines from base to summit – the rocks, streams, lakes, glaciers, irised falls, and the forests of silver fir and silver pine.” – John Muir</t>
+  </si>
+  <si>
+    <t>“In the Spring, I have counted 136 different kinds of weather inside of 24 hours.” – Mark Twain</t>
+  </si>
+  <si>
+    <t>Funny Weather Quotes</t>
+  </si>
+  <si>
+    <r>
+      <t>“The afternoon was cold as blue eyes that didn’t love you any more.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kinky Friedman</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Mexican weather report: chilli today and hot tamale.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Paul Rodriguez</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Empirical analysis reveals that happiness is negatively related to temperature in a linear model, and is maximized at 13.9 degrees Celsius in a quadratic model.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yoshiro Tsutsui</t>
+    </r>
+  </si>
+  <si>
+    <t>“Today has been eighty degrees in the shade. I was clever. I stayed in the sun.” –</t>
+  </si>
+  <si>
+    <t>“It’s so cold in new york city. Today in central park, i saw a squirrel salting his nuts.” –</t>
+  </si>
+  <si>
+    <r>
+      <t>“Rain is one thing the british do better than anybody else.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Marilyn French</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“What men call gallantry, and gods adultery, is much more common where the climate’s sultry.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lord Byron</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“I don’t like all this fresh air.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i’m from i angeles.” – i don’t trust any air i can’t see.” – Bob Hope</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“A barometer is an ingenious instrument that indicates what kind of weather we are having.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ambrose Bierce</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“There’s no such thing as bad weather, only inappropriate clothing.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sir Ranulph Fiennes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“One way to help the weather make up its mind is to hang out washing.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Marcelene Cox</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“It was one of those perfect summer days – the sun was shining, a gentle breeze was blowing, the birds were singing and the lawnmower was broken.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>James Dent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“I was so cold when i was in england, i almost got married.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Shelley Winters</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Thank heavens, the sun has gone in, and i don’t have to go out and enjoy it.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Logan Pearsall Smith</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Don’t knock the weather; nine-tenths of the people couldn’t start a conversation if it didn’t change once in a while.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kin Hubbard</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Heat! it was so dreadful that i found there was nothing for it but to take off my flesh and sit in my bones.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sydney Smith</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“The english winter – ending in july, to recommence in august.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lord Byron</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“March is the month that shows people who don’t drink exactly how a hangover feels.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Garrison Keillor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Whenever people talk to me about the weather, i always feel certain that they mean something else.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Oscar Wilde</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Every mile is two in the winter.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>George Herbert</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“It’s so cold in new york city that flashers are just describing themselves.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>David Letterman</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Better the chill blast of winter than the hot breath of a pursuing elephant.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Chinese proverb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“It was such a lovely day that it seemed a pity to get up.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Somerset Maugham</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“When the weather is hot, keep a cool mind. When the weather is cold, keep a warm heart.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Proverb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“How do the men who drive the snowplough get to work in the morning?” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Steven Wright</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“In india, ‘cold weather’ is merely a phrase to distinguish between weather which will melt a brass doorknob and weather which only makes it mushy.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mark Twain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“It always rains on tents. Rainstorms will travel thousands of miles against the prevailing winds, for the opportunity to rain on a tent.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dave Barry</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“It was so hot today i went to a cash point machine just to enjoy the feel of a cold gun against the back of my neck.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>David Letterman</t>
+    </r>
+  </si>
+  <si>
+    <t>Cold Weather Quotes</t>
+  </si>
+  <si>
+    <r>
+      <t>“What good is the warmth of summer, without the cold of winter to give it sweetness.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>John Steinbeck</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“The cold never bothered me anyway.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Elsa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“It was so cold I almost got married.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Shelley Winters</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“We feel cold, but we don’t mind it, because we will not come to harm. And if we wrapped up against the cold, we wouldn’t feel other things, like the bright tingle of the stars, or the music of the Aurora, or best of all the silky feeling of moonlight on our skin. It’s worth being cold for that.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Philip Pullman</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“October extinguished itself in a rush of howling winds and driving rain and November arrived, cold as frozen iron, with hard frosts every morning and icy draughts that bit at exposed hands and faces.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>J. K. Rowling</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Love keeps the cold out better than a cloak.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Henry Wadsworth Longfellow</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Scarves, mittens, and hats are a great way to express your personality in the cold weather.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Brad Goreski</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“A good way to remedy a cold morning is to have a warm heart.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Keith Wynn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“I like these cold, gray winter days. Days like these let you savor a bad mood.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bill Watterson</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“If the world is cold, make it your business to build fires.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Horace Traubel</t>
+    </r>
+  </si>
+  <si>
+    <t>“Whether the weather be cold, or whether the weather be hot; Whether the weather be fine, or whether the weather be not, we’ll weather the weather whatever the weather, whether we like it or not.”</t>
+  </si>
+  <si>
+    <r>
+      <t>“It was that kind of a crazy afternoon, terrifically cold, and no sun out or anything, and you felt like you were disappearing every time you crossed a road.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>J. D. Salinger</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“To appreciate the beauty of a snowflake it is necessary to stand out in the cold.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Aristotle</t>
+    </r>
+  </si>
+  <si>
+    <t>“Cold winter weather is snow laughing matter.”</t>
+  </si>
+  <si>
+    <r>
+      <t>“In the cold dark days of winter, dream about the flowers to get warmed up!” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mehmet Murat Ildan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Winter must be cold for those with no warm memories.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Anne Bradstreet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“It is impossible, to me at least, to be poetical in cold weather.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>George Eliot</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“The sun did not shine. It was too wet to play. So we sat in the house. All that cold, cold, wet day.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dr. Seuss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Good weather all the week, but come the weekend the weather stinks. When the weather is too hot they complain, too cold they complain, and when it’s just right, they’re watching TV.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rita Rudner</t>
+    </r>
+  </si>
+  <si>
+    <t>Hot Weather Quotes</t>
+  </si>
+  <si>
+    <r>
+      <t>“The weather behaved itself. In the spring, the little flowers came out obediently in the meads, and the dew sparkled, and the birds sang. In the summer it was beautifully hot for no less than four months, and, if it did rain just enough for agricultural purposes, they managed to arrange it so that it rained while you were in bed. In the autumn the leaves flamed and rattled before the west winds, tempering their sad adieu with glory. And in the winter, which was confined by statute to two months, the snow lay evenly, three feet thick, but never turned into slush.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T.H. White</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Summertime, oh, summertime, pattern of life indelible, the fade-proof lake, the woods unshatterable, the pasture with the sweet fern, and the juniper forever and ever… the cottages with their innocent and tranquil design, their tiny docks with the flagpole, and the American flag floating against the white clouds in the blue sky, the little paths over the roots of the trees leading from camp to camp. This was the American family at play, escaping the city heat.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>E.B. White</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“When the weather is hot, keep a cool mind. When the weather is cold, keep a warm heart.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ajahn Brahm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Good weather all week, but come the weekend, and the weather stinks. When the weather is too hot, they complain; too cold, they complain; and when it’s just right, they’re watching TV.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rita Rudner</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“People change more frequently than the seasons do, and still, we blame the sun for bringing in the heat.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Shweta Tale</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Never kick a fresh turd on a hot day.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Harry S. Truman</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“At night, hot weather opens the skull of a city, exposing its white brain and its central nerves, which sizzle like the inside of an electric-light bulb.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Truman Capote</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“What dreadful hot weather we have! It keeps one in a continual state of inelegance.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jane Austen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Summer, dropping so easily a delicious everything upon your skin and lips. Like a never-ending kiss – taunting, deep, and luscious. The sun. The heat. The thousand echoes of a timelessness before time, when every day seems longer than the next and no day seems likely to ever truly end. Summer.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Carew Papritz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“The morning heat had already soaked through the walls, rising up from the floor like a ghost of summers past.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Erik Tomblin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“What grows best in the heat: fantasy, unreason, lust.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Salman Rushdie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Yes, U.S. travelers dress better. The British are always so conspicuous in hot climates. They don’t seem to wear shorts. American men seem to be comfortable wearing hot-weather clothing.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bill Bryson</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Surely, anyway, a working day of eight or nine hours which is not split by a nap is simply too much for a human being to take, day in, day out, and particularly so in hot weather.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tom Hodgkinson</t>
+    </r>
+  </si>
+  <si>
+    <t>Rainy Weather Quotes</t>
+  </si>
+  <si>
+    <r>
+      <t>“It is best to read the weather forecast before praying for rain.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mark Twain</t>
+    </r>
+  </si>
+  <si>
+    <t>“Anyone who says sunshine brings happiness has never danced in the rain.”</t>
+  </si>
+  <si>
+    <t>“Life isn’t about waiting for the storm to pass — it’s about learning to dance in the rain.”</t>
+  </si>
+  <si>
+    <r>
+      <t>“The smell of rain was an excitement of the blood. She breathed in the fragrance of wet earth. Lupe felt like Cleopatra, her pores drinking in the gladness of nature, at one with sky and earth.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estela Portillo Trambley</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“The doors of abysmal gloom swing wide. Under the covert of the night the storm breaks loose. The heavily breathing earth, no longer passive, starts, turns with exhilarant response under a torrent of tingling rain… The swirling song of the storm calls to some dim, long-forgotten instinct, which is suddenly unleashed. I am athirst for the unencumbered impact of the rain… My shoulders are mantled in running scarves of rain… Over and through all, the soaking, palpable darkness, penetrating deep, deep, to the heart of the earth.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Virginia Garland</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“The rain cools the air, calms the soul and replenishes life.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mike Dolan</t>
+    </r>
+  </si>
+  <si>
+    <t>“I like people who smile when it’s raining.”</t>
+  </si>
+  <si>
+    <r>
+      <t>“Earth and rain — dust and desire — what mingled odor of these is not sweet?” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Virginia Garland</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Rain makes me happy. It is clean and comforting. It represents new beginnings and freedom. I always felt it washed away pain, all the dirt, and stains… The rain makes me feel alive.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scarlett Jensen</t>
+    </r>
+  </si>
+  <si>
+    <t>“When life throws you a rainy day, play in the puddles！”</t>
+  </si>
+  <si>
+    <r>
+      <t>“But tomorrow may rain, so I’ll follow the sun.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Beatles</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Learn how to read the love letters sent by the wind and rain, the snow and moon.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ikkyu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“It is one of the secrets of Nature in its mood of mockery that fine weather lays a heavier weight on the mind and hearts of the depressed and the inwardly tormented than does a really bad day with dark rain sniveling continuously and sympathetically from a dirty sky…” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Muriel Spark</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Weather is a literary specialty, and no untrained hand can turn out a good article on it” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mark Twain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“We often hear of bad weather, but in reality no weather is bad. It is all delightful, though in different ways. Some weather may be bad for farmers or crops, but for man all kinds are good. Sunshine is delicious, rain is refreshing, wind braces us up, snow is exhilarating.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>John Lubbock</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“The sky was dark and gloomy, the air was damp and raw, the streets were wet and sloppy. The smoke hung sluggishly above the chimney-tops as if it lacked the courage to rise, and the rain came slowly and doggedly down, as if it had not even the spirit to pour.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Charles Dickens</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Tears of joy are like the summer rain drops pierced by sunbeams.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hosea Ballou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“It was one of those somber evenings when the sighing of the wind resembles the moans of a dying man; a storm was brewing, and between the splashes of rain on the windows there was the silence of death. All nature suffers in such moments; the trees writhe in pain and twist their heads; the birds of the fields cower under the bushes; the streets of cities are deserted.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Alfred de Musset</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Some people feel the rain — others just get wet.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Roger Miller</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“I’m leaving because the weather is too good. I hate London when it’s not raining.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Groucho Marx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“But the true lover of rain… has a deep inner enjoyment of the rain, as rain, and his sense of its beauty drinks it in as thirstily as does the drinking earth. It refreshes and cools his heart and brain; he longs to go forth into the fields, to feel its steady stream, to scent its fragrance; to stand under some heavy-foliaged chestnut-tree, and hear the rushing music on the crowded leaves.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>John Richard Vernon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“I hate London when it’s not raining.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Groucho Marx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“I threw my head back and let the rain pound against my cheeks. An unexpected happiness bubbled up in me, and I started to laugh.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cynthia Ellingsen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“It’s better to go out and dance in the rain than to stay inside under a leaky roof.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vance L. Wisen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“It rained wildly, desperately, as though the sky had something to prove.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Abby Geni</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Fog is rain that whispers.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Olivia Dresher</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“The sound of the rain needs no translation.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Morimoto-roshi</t>
+    </r>
+  </si>
+  <si>
+    <t>Beautiful Weather Quotes</t>
+  </si>
+  <si>
+    <r>
+      <t>“There’s just something beautiful about walking in snow that nobody else has walked on. It makes you believe you’re special.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Carol Rifka Brunt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Summer afternoon—summer afternoon; to me those have always been the two most beautiful words in the English language.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Henry James</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Kindness is like snow. It beautifies everything it covers.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kahlil Gibran</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“We have very beautiful bad weather here at present – rain, wind, thunder – but with splendid effects; that’s why I like it.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vincent Van Gogh</t>
+    </r>
+  </si>
+  <si>
+    <t>Cloudy Weather Quotes</t>
+  </si>
+  <si>
+    <r>
+      <t>“A cloudy day is no match for a sunny disposition.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>William Arthur Ward</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“A cloudy day or a little sunshine have as great an influence on many constitutions as the most recent blessings or misfortunes.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Joseph Addison</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Dark clouds become heaven’s flowers when kissed by light.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rabindranath Tagore</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Don’t forget: Beautiful sunsets need cloudy Skies.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Paulo Coelho</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“God is the Sun and when His rays fall upon your heart, not impeded by the clouds of egoism, the lotus blooms and the petals unfold.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sathya Sai Baba</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“It was very dark; but in the murky sky there were masses of cloud which shone with a lurid light, like monstrous heaps of copper that had been heated in a furnace, and were growing cold.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Charles Dickens</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“I’ve got sunshine on a cloudy day.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Smokey Robinson</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“May your trails be crooked, winding, lonesome, dangerous, leading to the most amazing view. May your mountains rise into and above the clouds.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Edward Abbey</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“My favourite British spots are any of the beautiful parks, especially on a sunny day such as this, after a long stretch of cold, cloudy and rainy days.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Richard Schiff</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Oddly enough I never used to suffer from depression on cold, gray, cloudy days like this. I feel as if nature is in harmony with me, that it reflected my soul.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Paulo Coelho</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Only from the heart can you touch the sky.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rumi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Rosy clouds were spread like flowers in the sun’s pathway… the singing world of the air hung exulting in the hues of morning and the heavenly blue; sparks of clouds darted up from gold bars along the horizon; at last the flames of the sun streamed in over the earth.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jean Paul Friedrich Richter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“She missed him the days when some pretext served to take him away from her, just as one misses the sun on a cloudy day without having thought much about the sun when it was shining.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kate Chopin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“The clouds, — the only birds that never sleep.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Victor Hugo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“There are no rules of architecture for a castle in the clouds.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>G.K. Chesterton</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“There is one spectacle grander than the sea, that is the sky; there is one spectacle grander than the sky, that is the interior of the soul.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Victor Hugo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Those clouds are angels’ robes.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Charles Kingsley</t>
+    </r>
+  </si>
+  <si>
+    <t>“When clouds appear like rocks and towers, the earth’s refreshed by frequent showers.”</t>
+  </si>
+  <si>
+    <t>Good Weather Quotes</t>
+  </si>
+  <si>
+    <r>
+      <t>“And so we stayed out in the garden of the old house until we couldn’t kick a ball, laughing in the gathering twilight, making the most of the good weather and all the days that were left, our little game watched only by next door’s cat, and every star in the heavens.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tony Parsons</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“We have thousands of opportunities every day to be grateful: for having good weather, to have slept well last night, to be able to get up, to be healthy, to have enough to eat. … There’s opportunity upon opportunity to be grateful; that’s what life is.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>David Steindl-Rast</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“There’s no such thing as good weather, or bad weather. There’s just weather and your attitude towards it.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Louise Hay</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“We catched fish, and talked, and we took a swim now and then to keep off sleepiness. It was kind of solemn, drifting down the big still river, laying on our backs looking up at the stars, and we didn’t ever feel like talking loud, and it warn’t often that we laughed, only a kind of low chuckle. We had mighty good weather, as a general thing, and nothing ever happened to us at all, that night, nor the next, nor the next.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mark Twain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“As a writer, I could write in Canada and still get the American benefits. But I wanted to come down here for the good weather and for the parties, I want to be social too. Being in LA is really great for that, for just running out and grabbing coffee with another writer. I couldn’t do that in Canada. I love Los Angeles, and I love New York too; I just couldn’t raise three kids there.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kelly Oxford</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“California is lucky, the East Coast is lucky because we get great seafood and a lot of produce from Florida, locally in good weather, but in the winter we have to buy it.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eric Ripert</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Sunshine is delicious, rain is refreshing, wind braces us up, snow is exhilarating; there is really no such thing as bad weather, only different kinds of good weather.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>John Ruskin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“He was sunshine most always-I mean he made it seem like good weather.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mark Twain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“everyone knows, at some level, that the sharp line between “good weather” and “bad weather” is a fiction, that we need rain as surely as we need sun.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bill McKibben</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Never has good weather felt so bad. Never have flowers inspired so much fear. Never has the warm caress of a sunbeam seemed so ominous. The weather is sublime, it’s glorious, it’s the end of the world.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Joel Achenbach</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“We are accustomed to live in hopes of good weather, a good harvest, a nice love-affair, hopes of becoming rich or getting the office of chief of police, but I’ve never noticed anyone hoping to get wiser. We say to ourselves: it’ll be better under a new tsar, and in two hundred years it’ll still be better, and nobody tries to make this good time come tomorrow. On the whole, life gets more and more complex every day and moves on its own sweet will, and people get more and more stupid, and get isolated from life in ever-increasing numbers.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Anton Chekhov</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“I’ve lived in good climate, and it bores the hell out of me. I like weather rather than climate.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>John Steinbeck</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Keep your face to the sun and you will never see the shadows.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Helen Keller</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Summer breeze makes me feel fine.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Seals &amp; Crofts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“If you wait long enough, it will be good weather.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Japanese proverb</t>
+    </r>
+  </si>
+  <si>
+    <t>Bad Weather Quotes</t>
+  </si>
+  <si>
+    <r>
+      <t>“The good seaman is known in bad weather.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Proverb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Cussing the weather is mighty poor farming.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>African-American proverb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“There is no bad weather, just soft runners.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bill Bowerman</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“There’s no such thing as bad weather, only inappropriate clothing” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ranulph Fiennes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“There’s no such thing as bad weather, just soft people.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bill Bowerman</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“There’s no such thing as bad weather – only the wrong clothes.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Billy Connolly</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Weather forecast for tonight: dark.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>George Carlin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Bad weather makes for good photography.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ansel Adams</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Bad weather always looks worse through a window.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tom Lehrer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“We may have bad weather in Ireland, but the sun shines in the hearts of the people and that keeps us all warm.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Marianne Williamson</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“For the man sound in body and serene of mind there is no such thing as bad weather; every day has its beauty, and storms which whip the blood do but make it pulse more vigorously.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>George Gissing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“We often hear of bad weather, but in reality, no weather is bad. It is all delightful, though in different ways. Some weather may be bad for farmers or crops, but for man all kinds are good. Sunshine is delicious, rain is refreshing, wind braces us up, snow is exhilarating.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>John Lubbock</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“There’s no such thing as bad weather, only unsuitable clothing.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Alfred Wainwright</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“After bad weather comes good. After a storm comes a calm.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Italian proverb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“The only consolation in foul weather is to turn one’s lock upon the street, and settle in by the fire with tea and a good book…” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Stephanie Barron</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Too often man handles life as he does the bad weather. He whiles away the time as he waits for it to stop.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Alfred Polgar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Life is a game of piquet played in a bramble bush in very bad weather.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Katherine Anne Porter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“I hate all those weathermen, too, who tell you that rain is bad weather. There’s no such thing as bad weather, just the wrong clothing.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Billy Connolly</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“I love rainy and bad-weather days because this type of weather gives me a mental advantage, especially when I’m fishing in a tournament. When the weather is inclement, most fishermen start thinking of reasons why they can’t catch bass. But, because I fish so often in bad weather, I’m thinking of all the reasons I can catch bass in bad weather conditions.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gary A. Klein</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“You can never be an entrepreneur if you’re afraid to lose money. It’s like being a pilot who is afraid of bad weather.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Peter de Savar</t>
+    </r>
+  </si>
+  <si>
+    <t>Romantic Weather Quotes</t>
+  </si>
+  <si>
+    <t>“I was made for sunny days.”</t>
+  </si>
+  <si>
+    <r>
+      <t>“I leaned out one last time and caught a snowflake on my tongue. They tasted so good, so pure and so divine, like nothing I had ever tasted from the sky.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Shannon A. Thompson</t>
+    </r>
+  </si>
+  <si>
+    <t>“Life is like Chicago weather — you never know what you’re gonna get.”</t>
+  </si>
+  <si>
+    <r>
+      <t>“One kind word can warm three winter months.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Japanese Proverb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“One must maintain a little bit of summer, even in the middle of winter.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Henry David Thoreau</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Silently, like thoughts that come and go, the snowflakes fall, each one a gem.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>William Hamilton Gibson</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Snow falling soundlessly in the middle of the night will always fill my heart with sweet clarity.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Novala Takemoto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Snowflakes are one of nature’s most fragile things, but just look what they can do when they stick together.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vista M. Kelly</t>
+    </r>
+  </si>
+  <si>
+    <t>Cool Weather Quotes</t>
+  </si>
+  <si>
+    <r>
+      <t>“Winter passes and one remembers one’s perseverance.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yoko Ono</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“There is no season such delight can bring, as summer, autumn, winter and the spring.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>William Browne</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“People don’t notice whether it’s winter or summer when they’re happy.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Anton Chekhov</t>
+    </r>
+  </si>
+  <si>
+    <t>“When it snows, you have two choices: shovel or make snow angels.”</t>
+  </si>
+  <si>
+    <r>
+      <t>“Winter is an etching, spring a watercolor, summer a painting, and autumn a mosaic of them all.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Stanley Horowitz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“A lot of people like snow. I find it to be an unnecessary freezing of water.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Carl Reiner</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“A cold wind was blowing from the north, and it made the trees rustle like living things.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>George R. R. Martin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“A snow day literally and figuratively falls from the sky, unbidden, and seems like a thing of wonder.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Susan Orlean</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Name the season’s first hurricane Zelda and fool Mother Nature into calling it a year.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Robert Breault</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“In seed time learn, in harvest teach, in winter enjoy.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>William Blake</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“I got all my boyhood in vanilla winter waves around the kitchen stove.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jack Kerouac</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Winter dressing is all about having chic outerwear.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>George Kotsiopoulos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“To be interested in the changing seasons is a happier state of mind than to be hopelessly in love with spring.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>George Santayana</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Winter is on my head, but eternal spring is in my heart.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Victor Hugo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“There is a muscular energy in sunlight corresponding to the spiritual energy of wind.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Annie Dillard</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Winter is not a season, it’s a celebration.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Anamika Mishra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Nothing burns like the cold.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>George R. R. Martin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“I prefer winter and fall, when you feel the bone structure of the landscape—the loneliness of it, the dead feeling of winter. Something waits beneath it, the whole story doesn’t show.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Andrew Wyeth</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Some people walk in the rain, others just get wet.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Roger Miller</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Winter is a season of recovery and preparation.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Paul Theroux</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“The snow doesn’t give a soft white damn whom it touches.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>E. E. Cummings</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Advice is like the snow. The softer it falls, the longer it dwells upon and the deeper it sinks into the mind.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Samuel Taylor Coleridge</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“A well known American writer said once that, while everybody talked about the weather, nobody seemed to do anything about it.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Charles Dudley Warner</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“The trouble with weather forecasting is that it’s right too often for us to ignore it and wrong too often for us to rely on it.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Patrick Young</t>
+    </r>
+  </si>
+  <si>
+    <t>Love Weather Quotes</t>
+  </si>
+  <si>
+    <r>
+      <t>“We shall never be content until each man makes his own weather and keeps it to himself.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jerome K. Jerome</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“The Eskimos had fifty-two names for snow because it was important to them: there ought to be as many for love.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Margaret Atwood</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Let us love winter, for it is the spring of genius.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pietro Aretino</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“It was June, and the world smelled of roses. The sunshine was like powdered gold over the grassy hillside.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Maud Hart Lovelace</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“I wonder if the snow loves the trees and fields, that it kisses them so gently? And then it covers them up snug, you know, with a white quilt; and perhaps it says “Go to sleep, darlings, till the summer comes again.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lewis Carroll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“I love summertime more than anything else in the world. That is the only thing that gets me through the winter, knowing that summer is going to be there.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jack McBrayer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“I love how summer just wraps its arms around you like a warm blanket.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kellie Elmore</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“I could never in a hundred summers get tired of this.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Susan Branch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Snow flurries began to fall and they swirled around people’s legs like house cats. It was magical, this snow globe world.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sarah Addison Allen</t>
+    </r>
+  </si>
+  <si>
+    <t>Weather The Storm Quotes</t>
+  </si>
+  <si>
+    <r>
+      <t>“Here’s to the pilot that weathered the storm.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>George Canning</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“It is only in sorrow bad weather masters us; in joy we face the storm and defy it.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Amelia Barr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“I miss L.A. because of the weather. It can change so much in Calgary. You can get a storm one minute, and then the sun will come out and it will be hot.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dominique McElligott</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“The key thing to understand is that solar activity causes shifts in the jet stream with consequent changes in weather patterns and triggers processes that lead to storm formation.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Piers Corbyn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“There is always a storm. There is always rain. Some experience it. Some live through it. And others are made from it.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Shannon L. Alder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Where can we hide in fair weather, we orphans of the storm?” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evelyn Waugh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Surfers are in tune with the weather because if there’s a storm coming, there are waves coming. I love the rain.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Stephanie Gilmore</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Rise above the storm and you will find the sunshine.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mario Fernández</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“I once dated a weather girl, we talked up a storm.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jay London</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“I have seen many storms in my life. Most storms have caught me by surprise, so I had to learn very quickly to look further and understand that I am not capable of controlling the weather, to exercise the art of patience and to respect the fury of nature.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Paulo Coelho</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Some things are only capable of being done in space. Examples of that are looking at our Earth from that far away, and understanding the entire processes of storms and weather patterns, and oceans, and coastlines.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Laurel Clark</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“If you want to see the sunshine, you have to weather the storm.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Frank Lane</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“No storm can last forever. It will never rain 365 days consecutively. Keep in mind that trouble comes to pass, not to stay. Don’t worry! No storm, not even the one in your life, can last forever.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Iyanla Vanzant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Sorrows gather around great souls as storms do around mountains; but, like them, they break the storm and purify the air of the plain beneath them.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jean Paul</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“The storm came. Lives were washed away. Ancient pains resurfaced. Now it is time for a sea of change.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Travis Smiley</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Clouds come floating into my life, no longer to carry rain or usher storm, but to add color to my sunset sky.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rabindranath Tagore</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“Never make your most important decisions when you are in your worst moods. Wait. Be patient. The storm will pass. The spring will come.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Robert Schuller</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“The more violent the storm, the sooner it is over.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Roman Proverb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“The fishermen know that the sea is dangerous and the storm terrible, but they have never found these dangers sufficient reason for remaining ashore.” – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vincent Van Gogh</t>
+    </r>
+  </si>
+  <si>
+    <t>Top Weather Quotes</t>
   </si>
 </sst>
 </file>
@@ -92,11 +3032,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,7 +3060,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,6 +3078,251 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>331470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="Anyone who says sunshine brings happiness has never danced in the rain.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6604E48C-94C8-42E5-947B-7C740524407B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="640080" y="7212330"/>
+          <a:ext cx="10287000" cy="10287000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1653540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="Nothing better than the sound of heavy rain while you're falling asleep.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93CDFD1A-04B5-4C3C-90EE-0B7A5E395758}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2015490" y="7212330"/>
+          <a:ext cx="6858000" cy="6858000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>331470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="AutoShape 3" descr="Wherever you go, no matter the weather, always bring your own sunshine. - ANTHONY J. D'ANGELO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F1848C-47F2-424A-9179-331D653BC6D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3299460" y="7212330"/>
+          <a:ext cx="10287000" cy="10287000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>331470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="AutoShape 4" descr="DON'T KNOCK THE WEATHER NINE-TENTHS OF THE PEOPLE COULDN'T START A CONVERSATION IF IT DIDN'T CHANGE ONCE IN WHILE. - KIN HUBBARD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF8B0F5-110C-4402-A210-5084CF51198C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4537710" y="7212330"/>
+          <a:ext cx="10287000" cy="10287000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4240530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1029" name="AutoShape 5" descr="There’s no such thing as bad weather, only inappropriate clothing. – Ranulph Fiennes">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DAC9789-C24E-4530-9509-B628FC9430EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5878830" y="7212330"/>
+          <a:ext cx="9441180" cy="9441180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,78 +3622,768 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078AA729-B773-4494-9785-BC8448D54B8A}">
-  <dimension ref="A2:M5"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.62890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5234375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.20703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7890625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7890625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.9453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83984375" style="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.9453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
+    <row r="1" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="374.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
+    <row r="5" spans="1:13" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="6" spans="1:13" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J5" t="s">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="244.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" t="s">
-        <v>11</v>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="388.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="224.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="195.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="187.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="94.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="288" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="296.39999999999998" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="94.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>